--- a/products/17.xlsx
+++ b/products/17.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -10,8 +10,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Работа в команде (10трв день)</t>
   </si>
@@ -34,13 +34,19 @@
   </si>
   <si>
     <t>Ck2 White Diamond</t>
+  </si>
+  <si>
+    <t>Tv5 C4</t>
+  </si>
+  <si>
+    <t>МЕФ Мяу</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,26 +349,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -373,7 +379,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -384,18 +390,18 @@
         <v>372</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="C3">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -406,7 +412,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -415,6 +421,39 @@
       </c>
       <c r="C5">
         <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3200</v>
+      </c>
+      <c r="C6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2400</v>
+      </c>
+      <c r="C7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>5000</v>
+      </c>
+      <c r="C8">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
